--- a/Analytics/SC0/CrossBookings_sc0.xlsx
+++ b/Analytics/SC0/CrossBookings_sc0.xlsx
@@ -100,7 +100,7 @@
     <t>SUM("TCrossBookings")</t>
   </si>
   <si>
-    <t>SUM("TCrossBookings") / 30</t>
+    <t>SUM("TCrossBookings") / 38</t>
   </si>
 </sst>
 </file>
@@ -482,7 +482,7 @@
         <v>18600.0</v>
       </c>
       <c r="D2" t="n">
-        <v>620.0</v>
+        <v>489.4736842105263</v>
       </c>
     </row>
     <row r="3">
@@ -496,7 +496,7 @@
         <v>17800.0</v>
       </c>
       <c r="D3" t="n">
-        <v>593.3333333333334</v>
+        <v>468.42105263157896</v>
       </c>
     </row>
     <row r="4">
@@ -510,7 +510,7 @@
         <v>15950.0</v>
       </c>
       <c r="D4" t="n">
-        <v>531.6666666666666</v>
+        <v>419.7368421052632</v>
       </c>
     </row>
     <row r="5">
@@ -524,7 +524,7 @@
         <v>15700.0</v>
       </c>
       <c r="D5" t="n">
-        <v>523.3333333333334</v>
+        <v>413.1578947368421</v>
       </c>
     </row>
     <row r="6">
@@ -538,7 +538,7 @@
         <v>15650.0</v>
       </c>
       <c r="D6" t="n">
-        <v>521.6666666666666</v>
+        <v>411.8421052631579</v>
       </c>
     </row>
     <row r="7">
@@ -552,7 +552,7 @@
         <v>15600.0</v>
       </c>
       <c r="D7" t="n">
-        <v>520.0</v>
+        <v>410.5263157894737</v>
       </c>
     </row>
     <row r="8">
@@ -566,7 +566,7 @@
         <v>15400.0</v>
       </c>
       <c r="D8" t="n">
-        <v>513.3333333333334</v>
+        <v>405.2631578947368</v>
       </c>
     </row>
     <row r="9">
@@ -580,7 +580,7 @@
         <v>15000.0</v>
       </c>
       <c r="D9" t="n">
-        <v>500.0</v>
+        <v>394.7368421052632</v>
       </c>
     </row>
     <row r="10">
@@ -594,7 +594,7 @@
         <v>13500.0</v>
       </c>
       <c r="D10" t="n">
-        <v>450.0</v>
+        <v>355.2631578947368</v>
       </c>
     </row>
     <row r="11">
@@ -608,7 +608,7 @@
         <v>13200.0</v>
       </c>
       <c r="D11" t="n">
-        <v>440.0</v>
+        <v>347.36842105263156</v>
       </c>
     </row>
     <row r="12">
@@ -622,7 +622,7 @@
         <v>12050.0</v>
       </c>
       <c r="D12" t="n">
-        <v>401.6666666666667</v>
+        <v>317.10526315789474</v>
       </c>
     </row>
     <row r="13">
@@ -636,7 +636,7 @@
         <v>9250.0</v>
       </c>
       <c r="D13" t="n">
-        <v>308.3333333333333</v>
+        <v>243.42105263157896</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/CrossBookings_sc0.xlsx
+++ b/Analytics/SC0/CrossBookings_sc0.xlsx
@@ -58,40 +58,40 @@
     <t>12</t>
   </si>
   <si>
+    <t>Aberdeen</t>
+  </si>
+  <si>
+    <t>Dundee United</t>
+  </si>
+  <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
     <t>Motherwell</t>
   </si>
   <si>
+    <t>Kilmarnock</t>
+  </si>
+  <si>
+    <t>Dundee</t>
+  </si>
+  <si>
+    <t>St Mirren</t>
+  </si>
+  <si>
+    <t>Celtic</t>
+  </si>
+  <si>
+    <t>Ross County</t>
+  </si>
+  <si>
+    <t>Hearts</t>
+  </si>
+  <si>
     <t>St Johnstone</t>
   </si>
   <si>
-    <t>Dundee</t>
-  </si>
-  <si>
-    <t>Hearts</t>
-  </si>
-  <si>
-    <t>Aberdeen</t>
-  </si>
-  <si>
-    <t>Ross County</t>
-  </si>
-  <si>
-    <t>Celtic</t>
-  </si>
-  <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
-    <t>Hibernian</t>
-  </si>
-  <si>
     <t>Rangers</t>
-  </si>
-  <si>
-    <t>Livingston</t>
-  </si>
-  <si>
-    <t>St Mirren</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>9600.0</v>
+        <v>5800.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>8500.0</v>
+        <v>5400.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>8450.0</v>
+        <v>5200.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>8200.0</v>
+        <v>4025.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>8000.0</v>
+        <v>3300.0</v>
       </c>
     </row>
     <row r="7">
@@ -223,7 +223,7 @@
         <v>19</v>
       </c>
       <c r="C7" t="n">
-        <v>8000.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="8">
@@ -234,7 +234,7 @@
         <v>20</v>
       </c>
       <c r="C8" t="n">
-        <v>7300.0</v>
+        <v>2900.0</v>
       </c>
     </row>
     <row r="9">
@@ -245,7 +245,7 @@
         <v>21</v>
       </c>
       <c r="C9" t="n">
-        <v>6950.0</v>
+        <v>2800.0</v>
       </c>
     </row>
     <row r="10">
@@ -256,7 +256,7 @@
         <v>22</v>
       </c>
       <c r="C10" t="n">
-        <v>6900.0</v>
+        <v>2350.0</v>
       </c>
     </row>
     <row r="11">
@@ -267,7 +267,7 @@
         <v>23</v>
       </c>
       <c r="C11" t="n">
-        <v>6400.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="12">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>6200.0</v>
+        <v>1600.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>4350.0</v>
+        <v>1200.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,10 +319,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C2" t="n">
-        <v>11650.0</v>
+        <v>6500.0</v>
       </c>
     </row>
     <row r="3">
@@ -330,10 +330,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>9800.0</v>
+        <v>5450.0</v>
       </c>
     </row>
     <row r="4">
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
-        <v>9200.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="5">
@@ -352,10 +352,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>9050.0</v>
+        <v>4725.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
-        <v>7500.0</v>
+        <v>4650.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,10 +374,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="n">
-        <v>7000.0</v>
+        <v>3150.0</v>
       </c>
     </row>
     <row r="8">
@@ -388,7 +388,7 @@
         <v>16</v>
       </c>
       <c r="C8" t="n">
-        <v>6950.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C9" t="n">
-        <v>6050.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C10" t="n">
-        <v>5900.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C11" t="n">
-        <v>5850.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="12">
@@ -429,10 +429,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>5000.0</v>
+        <v>1400.0</v>
       </c>
     </row>
     <row r="13">
@@ -440,10 +440,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C13" t="n">
-        <v>4900.0</v>
+        <v>1000.0</v>
       </c>
     </row>
   </sheetData>
@@ -476,13 +476,13 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C2" t="n">
-        <v>18600.0</v>
+        <v>8875.0</v>
       </c>
       <c r="D2" t="n">
-        <v>489.4736842105263</v>
+        <v>233.55263157894737</v>
       </c>
     </row>
     <row r="3">
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
-        <v>17800.0</v>
+        <v>7700.0</v>
       </c>
       <c r="D3" t="n">
-        <v>468.42105263157896</v>
+        <v>202.6315789473684</v>
       </c>
     </row>
     <row r="4">
@@ -504,13 +504,13 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>15950.0</v>
+        <v>7625.0</v>
       </c>
       <c r="D4" t="n">
-        <v>419.7368421052632</v>
+        <v>200.6578947368421</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="n">
-        <v>15700.0</v>
+        <v>7500.0</v>
       </c>
       <c r="D5" t="n">
-        <v>413.1578947368421</v>
+        <v>197.3684210526316</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
-        <v>15650.0</v>
+        <v>7400.0</v>
       </c>
       <c r="D6" t="n">
-        <v>411.8421052631579</v>
+        <v>194.73684210526315</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
-        <v>15600.0</v>
+        <v>7050.0</v>
       </c>
       <c r="D7" t="n">
-        <v>410.5263157894737</v>
+        <v>185.52631578947367</v>
       </c>
     </row>
     <row r="8">
@@ -560,13 +560,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>15400.0</v>
+        <v>6800.0</v>
       </c>
       <c r="D8" t="n">
-        <v>405.2631578947368</v>
+        <v>178.94736842105263</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
-        <v>15000.0</v>
+        <v>6450.0</v>
       </c>
       <c r="D9" t="n">
-        <v>394.7368421052632</v>
+        <v>169.73684210526315</v>
       </c>
     </row>
     <row r="10">
@@ -588,13 +588,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>13500.0</v>
+        <v>6450.0</v>
       </c>
       <c r="D10" t="n">
-        <v>355.2631578947368</v>
+        <v>169.73684210526315</v>
       </c>
     </row>
     <row r="11">
@@ -602,13 +602,13 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>13200.0</v>
+        <v>5150.0</v>
       </c>
       <c r="D11" t="n">
-        <v>347.36842105263156</v>
+        <v>135.52631578947367</v>
       </c>
     </row>
     <row r="12">
@@ -616,13 +616,13 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>12050.0</v>
+        <v>4300.0</v>
       </c>
       <c r="D12" t="n">
-        <v>317.10526315789474</v>
+        <v>113.15789473684211</v>
       </c>
     </row>
     <row r="13">
@@ -630,13 +630,13 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>9250.0</v>
+        <v>3750.0</v>
       </c>
       <c r="D13" t="n">
-        <v>243.42105263157896</v>
+        <v>98.6842105263158</v>
       </c>
     </row>
   </sheetData>

--- a/Analytics/SC0/CrossBookings_sc0.xlsx
+++ b/Analytics/SC0/CrossBookings_sc0.xlsx
@@ -61,18 +61,18 @@
     <t>Aberdeen</t>
   </si>
   <si>
+    <t>Hibernian</t>
+  </si>
+  <si>
     <t>Dundee United</t>
   </si>
   <si>
-    <t>Hibernian</t>
+    <t>Kilmarnock</t>
   </si>
   <si>
     <t>Motherwell</t>
   </si>
   <si>
-    <t>Kilmarnock</t>
-  </si>
-  <si>
     <t>Dundee</t>
   </si>
   <si>
@@ -88,10 +88,10 @@
     <t>Hearts</t>
   </si>
   <si>
+    <t>Rangers</t>
+  </si>
+  <si>
     <t>St Johnstone</t>
-  </si>
-  <si>
-    <t>Rangers</t>
   </si>
   <si>
     <t>AwayTeam</t>
@@ -168,7 +168,7 @@
         <v>14</v>
       </c>
       <c r="C2" t="n">
-        <v>5800.0</v>
+        <v>6100.0</v>
       </c>
     </row>
     <row r="3">
@@ -179,7 +179,7 @@
         <v>15</v>
       </c>
       <c r="C3" t="n">
-        <v>5400.0</v>
+        <v>5600.0</v>
       </c>
     </row>
     <row r="4">
@@ -190,7 +190,7 @@
         <v>16</v>
       </c>
       <c r="C4" t="n">
-        <v>5200.0</v>
+        <v>5500.0</v>
       </c>
     </row>
     <row r="5">
@@ -201,7 +201,7 @@
         <v>17</v>
       </c>
       <c r="C5" t="n">
-        <v>4025.0</v>
+        <v>4200.0</v>
       </c>
     </row>
     <row r="6">
@@ -212,7 +212,7 @@
         <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>3300.0</v>
+        <v>4025.0</v>
       </c>
     </row>
     <row r="7">
@@ -278,7 +278,7 @@
         <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>1600.0</v>
+        <v>1800.0</v>
       </c>
     </row>
     <row r="13">
@@ -289,7 +289,7 @@
         <v>25</v>
       </c>
       <c r="C13" t="n">
-        <v>1200.0</v>
+        <v>1600.0</v>
       </c>
     </row>
   </sheetData>
@@ -319,7 +319,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="n">
         <v>6500.0</v>
@@ -330,7 +330,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" t="n">
         <v>5450.0</v>
@@ -341,10 +341,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C4" t="n">
-        <v>4850.0</v>
+        <v>5250.0</v>
       </c>
     </row>
     <row r="5">
@@ -355,7 +355,7 @@
         <v>20</v>
       </c>
       <c r="C5" t="n">
-        <v>4725.0</v>
+        <v>5125.0</v>
       </c>
     </row>
     <row r="6">
@@ -363,10 +363,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
-        <v>4650.0</v>
+        <v>4850.0</v>
       </c>
     </row>
     <row r="7">
@@ -374,7 +374,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
         <v>3150.0</v>
@@ -385,10 +385,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C8" t="n">
-        <v>2300.0</v>
+        <v>2400.0</v>
       </c>
     </row>
     <row r="9">
@@ -396,10 +396,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C9" t="n">
-        <v>2000.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="10">
@@ -407,10 +407,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
-        <v>2000.0</v>
+        <v>2300.0</v>
       </c>
     </row>
     <row r="11">
@@ -418,10 +418,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C11" t="n">
-        <v>1500.0</v>
+        <v>2000.0</v>
       </c>
     </row>
     <row r="12">
@@ -432,7 +432,7 @@
         <v>22</v>
       </c>
       <c r="C12" t="n">
-        <v>1400.0</v>
+        <v>1500.0</v>
       </c>
     </row>
     <row r="13">
@@ -476,7 +476,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C2" t="n">
         <v>8875.0</v>
@@ -490,13 +490,13 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C3" t="n">
-        <v>7700.0</v>
+        <v>8300.0</v>
       </c>
       <c r="D3" t="n">
-        <v>202.6315789473684</v>
+        <v>218.42105263157896</v>
       </c>
     </row>
     <row r="4">
@@ -507,10 +507,10 @@
         <v>20</v>
       </c>
       <c r="C4" t="n">
-        <v>7625.0</v>
+        <v>8025.0</v>
       </c>
       <c r="D4" t="n">
-        <v>200.6578947368421</v>
+        <v>211.18421052631578</v>
       </c>
     </row>
     <row r="5">
@@ -518,13 +518,13 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="n">
-        <v>7500.0</v>
+        <v>7900.0</v>
       </c>
       <c r="D5" t="n">
-        <v>197.3684210526316</v>
+        <v>207.89473684210526</v>
       </c>
     </row>
     <row r="6">
@@ -532,13 +532,13 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C6" t="n">
-        <v>7400.0</v>
+        <v>7500.0</v>
       </c>
       <c r="D6" t="n">
-        <v>194.73684210526315</v>
+        <v>197.3684210526316</v>
       </c>
     </row>
     <row r="7">
@@ -546,13 +546,13 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C7" t="n">
-        <v>7050.0</v>
+        <v>7350.0</v>
       </c>
       <c r="D7" t="n">
-        <v>185.52631578947367</v>
+        <v>193.42105263157896</v>
       </c>
     </row>
     <row r="8">
@@ -563,10 +563,10 @@
         <v>14</v>
       </c>
       <c r="C8" t="n">
-        <v>6800.0</v>
+        <v>7100.0</v>
       </c>
       <c r="D8" t="n">
-        <v>178.94736842105263</v>
+        <v>186.8421052631579</v>
       </c>
     </row>
     <row r="9">
@@ -574,13 +574,13 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C9" t="n">
-        <v>6450.0</v>
+        <v>7050.0</v>
       </c>
       <c r="D9" t="n">
-        <v>169.73684210526315</v>
+        <v>185.52631578947367</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         <v>23</v>
       </c>
       <c r="C10" t="n">
-        <v>6450.0</v>
+        <v>7050.0</v>
       </c>
       <c r="D10" t="n">
-        <v>169.73684210526315</v>
+        <v>185.52631578947367</v>
       </c>
     </row>
     <row r="11">
@@ -605,10 +605,10 @@
         <v>19</v>
       </c>
       <c r="C11" t="n">
-        <v>5150.0</v>
+        <v>5450.0</v>
       </c>
       <c r="D11" t="n">
-        <v>135.52631578947367</v>
+        <v>143.42105263157896</v>
       </c>
     </row>
     <row r="12">
@@ -619,10 +619,10 @@
         <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>4300.0</v>
+        <v>5200.0</v>
       </c>
       <c r="D12" t="n">
-        <v>113.15789473684211</v>
+        <v>136.8421052631579</v>
       </c>
     </row>
     <row r="13">
@@ -633,10 +633,10 @@
         <v>22</v>
       </c>
       <c r="C13" t="n">
-        <v>3750.0</v>
+        <v>3850.0</v>
       </c>
       <c r="D13" t="n">
-        <v>98.6842105263158</v>
+        <v>101.3157894736842</v>
       </c>
     </row>
   </sheetData>
